--- a/planifGestion.xlsx
+++ b/planifGestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e132b29a63f6286/Desktop/Ecole/Git/GestionProjet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1352119\Desktop\ecole antidote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1EBC596A-A907-4469-8314-E1FF27609AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C70581A8-FC7E-434D-9629-6806FE0F310B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD749E72-F7E8-4E58-A08E-FC4E815575B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1ACE18D5-E0ED-4684-B43D-85861D688548}"/>
+    <workbookView xWindow="-120" yWindow="1080" windowWidth="29040" windowHeight="16440" xr2:uid="{1ACE18D5-E0ED-4684-B43D-85861D688548}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramme" sheetId="4" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,17 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification
-du projet </t>
-  </si>
-  <si>
-    <t>Planification 
-du projet</t>
   </si>
   <si>
     <r>
@@ -83,24 +72,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Formation 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hardware</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Croquis 
 </t>
     </r>
@@ -241,6 +212,134 @@
     </r>
   </si>
   <si>
+    <t>Rédaction du 
+rapport final</t>
+  </si>
+  <si>
+    <t>Planification symposium</t>
+  </si>
+  <si>
+    <t>Rencontre 18 mars</t>
+  </si>
+  <si>
+    <t>Légende</t>
+  </si>
+  <si>
+    <t>Semaine 1</t>
+  </si>
+  <si>
+    <t>Semaine 2</t>
+  </si>
+  <si>
+    <t>Semaine 3</t>
+  </si>
+  <si>
+    <t>Semaine 5</t>
+  </si>
+  <si>
+    <t>Semaine 4</t>
+  </si>
+  <si>
+    <t>Semaine 6</t>
+  </si>
+  <si>
+    <t>Semaine 7</t>
+  </si>
+  <si>
+    <t>Semaine 8</t>
+  </si>
+  <si>
+    <t>Semaine 9</t>
+  </si>
+  <si>
+    <t>Semaine 10</t>
+  </si>
+  <si>
+    <t>Semaine 11</t>
+  </si>
+  <si>
+    <t>Semaine 12</t>
+  </si>
+  <si>
+    <t>Semaine 13</t>
+  </si>
+  <si>
+    <t>Semaine 14</t>
+  </si>
+  <si>
+    <t>Semaine 15</t>
+  </si>
+  <si>
+    <t>heures/personne</t>
+  </si>
+  <si>
+    <t>Chemin critique</t>
+  </si>
+  <si>
+    <t>Chemin normal</t>
+  </si>
+  <si>
+    <t>calcul sur 90 h</t>
+  </si>
+  <si>
+    <t>cumulatif:</t>
+  </si>
+  <si>
+    <t>Jalon (rencontre planifiée)</t>
+  </si>
+  <si>
+    <t>Rencontre 29 avril</t>
+  </si>
+  <si>
+    <t>Jumelage des  3 volets</t>
+  </si>
+  <si>
+    <t>rencontre #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Planification du réseau des antécédents: Contrôle d’environnement avec module Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début du travail
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification
+du travail </t>
+  </si>
+  <si>
+    <t>Planification 
+du travail</t>
+  </si>
+  <si>
+    <t>Fin de travail / 
+Symposium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Formation 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Matériel</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Planification du</t>
     </r>
@@ -254,7 +353,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hardware</t>
+      <t xml:space="preserve"> matériel</t>
     </r>
   </si>
   <si>
@@ -271,7 +370,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hardware</t>
+      <t xml:space="preserve"> matériel</t>
     </r>
   </si>
   <si>
@@ -288,101 +387,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hardware</t>
+      <t xml:space="preserve"> matériel</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Début du projet
-</t>
-  </si>
-  <si>
-    <t>Rédaction du 
-rapport final</t>
-  </si>
-  <si>
-    <t>Planification symposium</t>
-  </si>
-  <si>
-    <t>Fin de projet / 
-Symposium</t>
-  </si>
-  <si>
-    <t>Rencontre 18 mars</t>
-  </si>
-  <si>
-    <t>Légende</t>
-  </si>
-  <si>
-    <t>Semaine 1</t>
-  </si>
-  <si>
-    <t>Semaine 2</t>
-  </si>
-  <si>
-    <t>Semaine 3</t>
-  </si>
-  <si>
-    <t>Semaine 5</t>
-  </si>
-  <si>
-    <t>Semaine 4</t>
-  </si>
-  <si>
-    <t>Semaine 6</t>
-  </si>
-  <si>
-    <t>Semaine 7</t>
-  </si>
-  <si>
-    <t>Semaine 8</t>
-  </si>
-  <si>
-    <t>Semaine 9</t>
-  </si>
-  <si>
-    <t>Semaine 10</t>
-  </si>
-  <si>
-    <t>Semaine 11</t>
-  </si>
-  <si>
-    <t>Semaine 12</t>
-  </si>
-  <si>
-    <t>Semaine 13</t>
-  </si>
-  <si>
-    <t>Semaine 14</t>
-  </si>
-  <si>
-    <t>Semaine 15</t>
-  </si>
-  <si>
-    <t>heures/personne</t>
-  </si>
-  <si>
-    <t>Chemin critique</t>
-  </si>
-  <si>
-    <t>Chemin normal</t>
-  </si>
-  <si>
-    <t>calcul sur 90 h</t>
-  </si>
-  <si>
-    <t>cumulatif:</t>
-  </si>
-  <si>
-    <t>Jalon (rencontre planifiée)</t>
-  </si>
-  <si>
-    <t>Rencontre 29 avril</t>
-  </si>
-  <si>
-    <t>Planification du réseau des antécédants: Contrôle d’environnement avec module Arduino</t>
-  </si>
-  <si>
-    <t>Jumelage des  3 volets</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -773,11 +779,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,50 +831,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,9 +842,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -919,6 +889,58 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,15 +1144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>25791</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>413659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>39874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1144,9 +1166,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9191625" y="2628899"/>
-          <a:ext cx="11477625" cy="219076"/>
+        <a:xfrm rot="823269" flipV="1">
+          <a:off x="9131691" y="3099709"/>
+          <a:ext cx="3995533" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1850,66 +1872,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flèche : droite 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6096781-CBEE-49E9-95EE-F7DB3079C934}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2484990">
-          <a:off x="20869274" y="3152776"/>
-          <a:ext cx="895350" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -2731,6 +2693,66 @@
         <a:xfrm rot="3660525">
           <a:off x="6093269" y="7115925"/>
           <a:ext cx="2421596" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>30486</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>359519</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Flèche : droite 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50B03FE-388E-4FF7-A093-2091D3CD4C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="823269" flipV="1">
+          <a:off x="13117836" y="3645943"/>
+          <a:ext cx="329033" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3063,514 +3085,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFFCDF9-6DAD-4E45-B98C-CF8C45BBD313}">
-  <dimension ref="A1:CT42"/>
+  <dimension ref="A1:CT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AA50" sqref="AA50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.140625" style="23" customWidth="1"/>
-    <col min="7" max="11" width="5.42578125" style="23"/>
-    <col min="18" max="18" width="5.42578125" style="23"/>
-    <col min="19" max="19" width="6" style="23" customWidth="1"/>
-    <col min="20" max="23" width="5.42578125" style="23"/>
+    <col min="6" max="6" width="11.140625" style="14" customWidth="1"/>
+    <col min="7" max="11" width="5.42578125" style="14"/>
+    <col min="18" max="18" width="5.42578125" style="14"/>
+    <col min="19" max="19" width="6" style="14" customWidth="1"/>
+    <col min="20" max="23" width="5.42578125" style="14"/>
     <col min="25" max="25" width="5.42578125" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="23"/>
-    <col min="31" max="31" width="5.42578125" style="23" customWidth="1"/>
-    <col min="32" max="35" width="5.42578125" style="23"/>
+    <col min="30" max="30" width="5.42578125" style="14"/>
+    <col min="31" max="31" width="5.42578125" style="14" customWidth="1"/>
+    <col min="32" max="35" width="5.42578125" style="14"/>
     <col min="37" max="37" width="5.5703125" customWidth="1"/>
-    <col min="42" max="47" width="5.42578125" style="23"/>
-    <col min="54" max="59" width="5.42578125" style="23"/>
-    <col min="66" max="71" width="5.42578125" style="23"/>
-    <col min="78" max="83" width="5.42578125" style="23"/>
-    <col min="90" max="95" width="5.42578125" style="23"/>
+    <col min="42" max="47" width="5.42578125" style="14"/>
+    <col min="54" max="59" width="5.42578125" style="14"/>
+    <col min="66" max="71" width="5.42578125" style="14"/>
+    <col min="78" max="83" width="5.42578125" style="14"/>
+    <col min="90" max="95" width="5.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="31" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:95" s="31" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>45</v>
+    <row r="1" spans="1:95" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:95" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:95" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:95" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:95" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>22</v>
+    <row r="3" spans="1:95" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:95" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:95" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:95" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:95" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
       <c r="AV7" s="13"/>
       <c r="AW7" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AX7" s="13"/>
       <c r="AY7" s="13"/>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="13"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
       <c r="BH7" s="13"/>
       <c r="BI7" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BJ7" s="13"/>
       <c r="BK7" s="13"/>
       <c r="BL7" s="13"/>
       <c r="BM7" s="13"/>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="33"/>
+      <c r="BN7" s="19"/>
+      <c r="BO7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP7" s="19"/>
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="19"/>
+      <c r="BS7" s="19"/>
       <c r="BT7" s="13"/>
       <c r="BU7" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BV7" s="13"/>
       <c r="BW7" s="13"/>
       <c r="BX7" s="13"/>
       <c r="BY7" s="13"/>
-      <c r="BZ7" s="33"/>
-      <c r="CA7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="33"/>
-      <c r="CD7" s="33"/>
-      <c r="CE7" s="33"/>
+      <c r="BZ7" s="19"/>
+      <c r="CA7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB7" s="19"/>
+      <c r="CC7" s="19"/>
+      <c r="CD7" s="19"/>
+      <c r="CE7" s="19"/>
       <c r="CF7" s="13"/>
       <c r="CG7" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="CH7" s="13"/>
       <c r="CI7" s="13"/>
       <c r="CJ7" s="13"/>
       <c r="CK7" s="13"/>
-      <c r="CL7" s="33"/>
-      <c r="CM7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="CN7" s="33"/>
-      <c r="CO7" s="33"/>
-      <c r="CP7" s="33"/>
-      <c r="CQ7" s="33"/>
+      <c r="CL7" s="19"/>
+      <c r="CM7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN7" s="19"/>
+      <c r="CO7" s="19"/>
+      <c r="CP7" s="19"/>
+      <c r="CQ7" s="19"/>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="29">
+        <v>31</v>
+      </c>
+      <c r="G8" s="51">
         <f>M8-7</f>
         <v>43852</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="M8" s="25">
+      <c r="H8" s="51"/>
+      <c r="M8" s="52">
         <f>S8-7</f>
         <v>43859</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="S8" s="29">
+      <c r="N8" s="52"/>
+      <c r="S8" s="51">
         <f>Y8-7</f>
         <v>43866</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="Y8" s="25">
+      <c r="T8" s="51"/>
+      <c r="Y8" s="52">
         <f>AE8-7</f>
         <v>43873</v>
       </c>
-      <c r="Z8" s="25"/>
-      <c r="AE8" s="29">
+      <c r="Z8" s="52"/>
+      <c r="AE8" s="51">
         <v>43880</v>
       </c>
-      <c r="AF8" s="29"/>
-      <c r="AK8" s="25">
+      <c r="AF8" s="51"/>
+      <c r="AK8" s="52">
         <f>AE8+7</f>
         <v>43887</v>
       </c>
-      <c r="AL8" s="25"/>
-      <c r="AQ8" s="29">
+      <c r="AL8" s="52"/>
+      <c r="AQ8" s="51">
         <f>AK8+7</f>
         <v>43894</v>
       </c>
-      <c r="AR8" s="29"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="35">
+      <c r="AR8" s="51"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="62">
         <f>AQ8+7</f>
         <v>43901</v>
       </c>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BC8" s="29">
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BC8" s="51">
         <f>AW8+7</f>
         <v>43908</v>
       </c>
-      <c r="BD8" s="29"/>
-      <c r="BI8" s="25">
+      <c r="BD8" s="51"/>
+      <c r="BI8" s="52">
         <f>BC8+7</f>
         <v>43915</v>
       </c>
-      <c r="BJ8" s="25"/>
-      <c r="BO8" s="29">
+      <c r="BJ8" s="52"/>
+      <c r="BO8" s="51">
         <f>BI8+7</f>
         <v>43922</v>
       </c>
-      <c r="BP8" s="29"/>
-      <c r="BU8" s="25">
+      <c r="BP8" s="51"/>
+      <c r="BU8" s="52">
         <f>BO8+7</f>
         <v>43929</v>
       </c>
-      <c r="BV8" s="25"/>
-      <c r="CA8" s="29">
+      <c r="BV8" s="52"/>
+      <c r="CA8" s="51">
         <f>BU8+7</f>
         <v>43936</v>
       </c>
-      <c r="CB8" s="29"/>
-      <c r="CG8" s="25">
+      <c r="CB8" s="51"/>
+      <c r="CG8" s="52">
         <f>CA8+7</f>
         <v>43943</v>
       </c>
-      <c r="CH8" s="25"/>
-      <c r="CM8" s="29">
+      <c r="CH8" s="52"/>
+      <c r="CM8" s="51">
         <f>CG8+7</f>
         <v>43950</v>
       </c>
-      <c r="CN8" s="29"/>
+      <c r="CN8" s="51"/>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="23">
+        <v>33</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="14">
         <v>6</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="31">
+      <c r="H9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="17">
         <f>G9+6</f>
         <v>12</v>
       </c>
-      <c r="N9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="S9" s="23">
+      <c r="N9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="S9" s="14">
         <f>M9+6</f>
         <v>18</v>
       </c>
-      <c r="T9" s="23" t="s">
-        <v>38</v>
+      <c r="T9" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="Y9">
         <f>S9+6</f>
         <v>24</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE9" s="23">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="14">
         <f>Y9+6</f>
         <v>30</v>
       </c>
-      <c r="AF9" s="23" t="s">
-        <v>38</v>
+      <c r="AF9" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="AK9">
         <f>AE9+6</f>
         <v>36</v>
       </c>
       <c r="AL9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ9" s="23">
+        <v>30</v>
+      </c>
+      <c r="AQ9" s="14">
         <f>AK9+6</f>
         <v>42</v>
       </c>
-      <c r="AR9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31">
+      <c r="AR9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17">
         <f>AQ9+6</f>
         <v>48</v>
       </c>
-      <c r="AX9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BC9" s="23">
+      <c r="AX9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BC9" s="14">
         <f>AW9+6</f>
         <v>54</v>
       </c>
-      <c r="BD9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI9" s="31">
+      <c r="BD9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI9" s="17">
         <f>BC9+6</f>
         <v>60</v>
       </c>
-      <c r="BJ9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK9" s="31"/>
-      <c r="BO9" s="23">
+      <c r="BJ9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK9" s="17"/>
+      <c r="BO9" s="14">
         <f>BI9+6</f>
         <v>66</v>
       </c>
-      <c r="BP9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="BU9" s="31">
+      <c r="BP9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU9" s="17">
         <f>BO9+6</f>
         <v>72</v>
       </c>
-      <c r="BV9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="CA9" s="23">
+      <c r="BV9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="CA9" s="14">
         <f>BU9+6</f>
         <v>78</v>
       </c>
-      <c r="CB9" s="23" t="s">
-        <v>38</v>
+      <c r="CB9" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="CG9">
         <f>CA9+6</f>
         <v>84</v>
       </c>
       <c r="CH9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CM9" s="23">
+        <v>30</v>
+      </c>
+      <c r="CM9" s="14">
         <f>CG9+6</f>
         <v>90</v>
       </c>
-      <c r="CN9" s="23" t="s">
-        <v>38</v>
+      <c r="CN9" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
-      <c r="BK10" s="31"/>
-      <c r="BU10" s="31"/>
-      <c r="BV10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
-      <c r="CG10" s="31"/>
-      <c r="CH10" s="31"/>
-      <c r="CI10" s="31"/>
+      <c r="A10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="17"/>
+      <c r="BU10" s="17"/>
+      <c r="BV10" s="17"/>
+      <c r="BW10" s="17"/>
+      <c r="BX10" s="17"/>
+      <c r="CG10" s="17"/>
+      <c r="CH10" s="17"/>
+      <c r="CI10" s="17"/>
     </row>
     <row r="11" spans="1:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="24"/>
-      <c r="V11" s="58">
+      <c r="R11" s="15"/>
+      <c r="V11" s="43">
         <f>$T$24+1</f>
         <v>16</v>
       </c>
-      <c r="W11" s="59">
+      <c r="W11" s="44">
         <v>5</v>
       </c>
-      <c r="X11" s="54">
+      <c r="X11" s="39">
         <f>V11+W11-1</f>
         <v>20</v>
       </c>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BD11" s="41"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="31"/>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="31"/>
-      <c r="BW11" s="31"/>
-      <c r="BX11" s="31"/>
-      <c r="CG11" s="31"/>
-      <c r="CH11" s="31"/>
-      <c r="CI11" s="31"/>
-      <c r="CN11" s="40"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AJ11" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BD11" s="26"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="17"/>
+      <c r="BK11" s="17"/>
+      <c r="BU11" s="17"/>
+      <c r="BV11" s="17"/>
+      <c r="BW11" s="17"/>
+      <c r="BX11" s="17"/>
+      <c r="CG11" s="17"/>
+      <c r="CH11" s="17"/>
+      <c r="CI11" s="17"/>
+      <c r="CN11" s="25"/>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="V12" s="51">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="V12" s="36">
         <f>$T$25+1</f>
         <v>16</v>
       </c>
-      <c r="W12" s="52">
+      <c r="W12" s="37">
         <v>5</v>
       </c>
-      <c r="X12" s="30">
+      <c r="X12" s="16">
         <f>V12+W12-1</f>
         <v>20</v>
       </c>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="31"/>
-      <c r="BW12" s="31"/>
-      <c r="BX12" s="31"/>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="31"/>
-      <c r="CI12" s="31"/>
-      <c r="CN12" s="40"/>
-      <c r="CO12" s="50" t="s">
-        <v>44</v>
+      <c r="AJ12" s="47"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI12" s="17"/>
+      <c r="BJ12" s="17"/>
+      <c r="BK12" s="17"/>
+      <c r="BU12" s="17"/>
+      <c r="BV12" s="17"/>
+      <c r="BW12" s="17"/>
+      <c r="BX12" s="17"/>
+      <c r="CG12" s="17"/>
+      <c r="CH12" s="17"/>
+      <c r="CI12" s="17"/>
+      <c r="CN12" s="25"/>
+      <c r="CO12" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:95" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="V13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="22"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="45"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="31"/>
-      <c r="BW13" s="31"/>
-      <c r="BX13" s="31"/>
-      <c r="CG13" s="31"/>
-      <c r="CH13" s="31"/>
-      <c r="CI13" s="31"/>
-      <c r="CN13" s="40"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="V13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="57"/>
+      <c r="X13" s="58"/>
+      <c r="AJ13" s="47"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="30"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="17"/>
+      <c r="BK13" s="17"/>
+      <c r="BU13" s="17"/>
+      <c r="BV13" s="17"/>
+      <c r="BW13" s="17"/>
+      <c r="BX13" s="17"/>
+      <c r="CG13" s="17"/>
+      <c r="CH13" s="17"/>
+      <c r="CI13" s="17"/>
+      <c r="CN13" s="25"/>
     </row>
     <row r="14" spans="1:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="V14" s="4">
         <f>X14-W12+1</f>
         <v>63</v>
@@ -3583,80 +3613,85 @@
         <f>BU27</f>
         <v>67</v>
       </c>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="47"/>
-      <c r="BE14" s="42"/>
-      <c r="CN14" s="40"/>
+      <c r="AJ14" s="47"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="27"/>
+      <c r="CN14" s="25"/>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="BD15" s="40"/>
-      <c r="CN15" s="40"/>
+      <c r="AJ15" s="47"/>
+      <c r="BD15" s="25"/>
+      <c r="CN15" s="25"/>
     </row>
     <row r="16" spans="1:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V16" s="58">
+      <c r="V16" s="43">
         <f>$T$24+1</f>
         <v>16</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="44">
         <v>15</v>
       </c>
-      <c r="X16" s="54">
+      <c r="X16" s="39">
         <f>V16+W16-1</f>
         <v>30</v>
       </c>
-      <c r="AK16" s="54">
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="39">
         <f>X16+1</f>
         <v>31</v>
       </c>
-      <c r="AL16" s="54">
+      <c r="AL16" s="39">
         <v>40</v>
       </c>
-      <c r="AM16" s="54">
+      <c r="AM16" s="39">
         <f>AK16+AL16-1</f>
         <v>70</v>
       </c>
-      <c r="BD16" s="40"/>
-      <c r="CN16" s="40"/>
+      <c r="BD16" s="25"/>
+      <c r="CN16" s="25"/>
     </row>
     <row r="17" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="V17" s="51">
+      <c r="V17" s="36">
         <f>$T$25+1</f>
         <v>16</v>
       </c>
-      <c r="W17" s="52">
+      <c r="W17" s="37">
         <v>15</v>
       </c>
-      <c r="X17" s="30">
+      <c r="X17" s="16">
         <f>V17+W17-1</f>
         <v>30</v>
       </c>
-      <c r="AK17" s="51">
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="36">
         <f>X17+1</f>
         <v>31</v>
       </c>
-      <c r="AL17" s="52">
+      <c r="AL17" s="37">
         <v>35</v>
       </c>
-      <c r="AM17" s="30">
+      <c r="AM17" s="16">
         <f>AK17+AL17-1</f>
         <v>65</v>
       </c>
-      <c r="BD17" s="40"/>
-      <c r="CN17" s="40"/>
+      <c r="BD17" s="25"/>
+      <c r="CN17" s="25"/>
     </row>
     <row r="18" spans="1:98" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V18" s="20" t="s">
+      <c r="V18" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="57"/>
+      <c r="X18" s="58"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="22"/>
-      <c r="AK18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="22"/>
-      <c r="BD18" s="40"/>
-      <c r="CN18" s="40"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="58"/>
+      <c r="BD18" s="25"/>
+      <c r="CN18" s="25"/>
     </row>
     <row r="19" spans="1:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V19" s="4">
@@ -3671,6 +3706,7 @@
         <f>AK19-1</f>
         <v>31</v>
       </c>
+      <c r="AJ19" s="47"/>
       <c r="AK19" s="4">
         <f>AM19-AL17+1</f>
         <v>32</v>
@@ -3683,367 +3719,380 @@
         <f>BU25-1</f>
         <v>66</v>
       </c>
-      <c r="BD19" s="40"/>
-      <c r="CN19" s="40"/>
+      <c r="BD19" s="25"/>
+      <c r="CN19" s="25"/>
     </row>
     <row r="20" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD20" s="40"/>
-      <c r="CN20" s="40"/>
+      <c r="AJ20" s="47"/>
+      <c r="BD20" s="25"/>
+      <c r="CN20" s="25"/>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD21" s="40"/>
-      <c r="CN21" s="40"/>
+      <c r="AJ21" s="47"/>
+      <c r="BD21" s="25"/>
+      <c r="CN21" s="25"/>
     </row>
     <row r="22" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD22" s="40"/>
-      <c r="CN22" s="40"/>
+      <c r="AJ22" s="47"/>
+      <c r="BD22" s="25"/>
+      <c r="CN22" s="25"/>
     </row>
     <row r="23" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD23" s="40"/>
-      <c r="CN23" s="40"/>
+      <c r="AJ23" s="47"/>
+      <c r="BD23" s="25"/>
+      <c r="CN23" s="25"/>
     </row>
     <row r="24" spans="1:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39">
         <v>0</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="39">
         <v>0</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="56">
+      <c r="E24" s="38"/>
+      <c r="F24" s="41">
         <f>D24+1</f>
         <v>1</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="41">
         <v>5</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="41">
         <f>F24+G24-1</f>
         <v>5</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="55">
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="40">
         <f>H24+1</f>
         <v>6</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="39">
         <v>5</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="39">
         <f>L24+M24-1</f>
         <v>10</v>
       </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="58">
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="43">
         <f>N24+1</f>
         <v>11</v>
       </c>
-      <c r="S24" s="59">
+      <c r="S24" s="44">
         <v>5</v>
       </c>
-      <c r="T24" s="59">
+      <c r="T24" s="44">
         <f>R24+S25-1</f>
         <v>15</v>
       </c>
-      <c r="U24" s="60"/>
-      <c r="V24" s="58">
+      <c r="U24" s="45"/>
+      <c r="V24" s="43">
         <f>T24+1</f>
         <v>16</v>
       </c>
-      <c r="W24" s="59">
+      <c r="W24" s="44">
         <v>20</v>
       </c>
-      <c r="X24" s="54">
+      <c r="X24" s="39">
         <f>V24+W24-1</f>
         <v>35</v>
       </c>
-      <c r="AQ24" s="59">
+      <c r="AJ24" s="47"/>
+      <c r="AN24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ24" s="44">
         <f>X24+1</f>
         <v>36</v>
       </c>
-      <c r="AR24" s="59">
+      <c r="AR24" s="44">
         <v>5</v>
       </c>
-      <c r="AS24" s="59">
+      <c r="AS24" s="44">
         <f>AQ24+AR24-1</f>
         <v>40</v>
       </c>
-      <c r="AW24" s="54">
+      <c r="AW24" s="39">
         <f>AS24+1</f>
         <v>41</v>
       </c>
-      <c r="AX24" s="54">
+      <c r="AX24" s="39">
         <v>5</v>
       </c>
-      <c r="AY24" s="54">
+      <c r="AY24" s="39">
         <f>AW24+AX24-1</f>
         <v>45</v>
       </c>
-      <c r="BC24" s="59">
+      <c r="BC24" s="44">
         <f>AY24+1</f>
         <v>46</v>
       </c>
-      <c r="BD24" s="61">
+      <c r="BD24" s="46">
         <v>55</v>
       </c>
-      <c r="BE24" s="59">
+      <c r="BE24" s="44">
         <f>BC24+BD24-1</f>
         <v>100</v>
       </c>
-      <c r="BU24" s="54">
+      <c r="BU24" s="39">
         <f>T24+1+W11+W16+W24+W31+W36+AL16+AR24+AR31+AX24+AX31+BD24+BD31+BJ31+BP31</f>
         <v>261</v>
       </c>
-      <c r="BV24" s="54">
+      <c r="BV24" s="39">
         <v>25</v>
       </c>
-      <c r="BW24" s="54">
+      <c r="BW24" s="39">
         <f>BU24+BV24-1</f>
         <v>285</v>
       </c>
-      <c r="CA24" s="59">
+      <c r="CA24" s="44">
         <f>BW24+1</f>
         <v>286</v>
       </c>
-      <c r="CB24" s="59">
+      <c r="CB24" s="44">
         <v>5</v>
       </c>
-      <c r="CC24" s="59">
+      <c r="CC24" s="44">
         <f>CA24+CB24-1</f>
         <v>290</v>
       </c>
-      <c r="CG24" s="54">
+      <c r="CG24" s="39">
         <f>CC24+1</f>
         <v>291</v>
       </c>
-      <c r="CH24" s="54">
+      <c r="CH24" s="39">
         <v>5</v>
       </c>
-      <c r="CI24" s="54">
+      <c r="CI24" s="39">
         <f>CG24+CH24-1</f>
         <v>295</v>
       </c>
-      <c r="CN24" s="40"/>
-      <c r="CR24" s="54">
+      <c r="CN24" s="25"/>
+      <c r="CR24" s="39">
         <f>CI24</f>
         <v>295</v>
       </c>
-      <c r="CS24" s="54" t="s">
+      <c r="CS24" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="CT24" s="54">
+      <c r="CT24" s="39">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B25" s="51">
+      <c r="B25" s="36">
         <v>0</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="16">
         <v>0</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="36">
         <f>D25+1</f>
         <v>1</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="37">
         <v>5</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="16">
         <f>F25+G25-1</f>
         <v>5</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="36">
         <f>H25+1</f>
         <v>6</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="37">
         <v>5</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="16">
         <f>L25+M25-1</f>
         <v>10</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="R25" s="51">
+      <c r="R25" s="36">
         <f>N25+1</f>
         <v>11</v>
       </c>
-      <c r="S25" s="52">
+      <c r="S25" s="37">
         <v>5</v>
       </c>
-      <c r="T25" s="30">
+      <c r="T25" s="16">
         <f>R25+S25-1</f>
         <v>15</v>
       </c>
-      <c r="V25" s="51">
+      <c r="V25" s="36">
         <f>$T$25+1</f>
         <v>16</v>
       </c>
-      <c r="W25" s="52">
+      <c r="W25" s="37">
         <v>20</v>
       </c>
-      <c r="X25" s="30">
+      <c r="X25" s="16">
         <f>V25+W25-1</f>
         <v>35</v>
       </c>
-      <c r="AQ25" s="51">
+      <c r="AJ25" s="47"/>
+      <c r="AK25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ25" s="36">
         <f>X25+1</f>
         <v>36</v>
       </c>
-      <c r="AR25" s="52">
+      <c r="AR25" s="37">
         <v>5</v>
       </c>
-      <c r="AS25" s="30">
+      <c r="AS25" s="16">
         <f>AQ25+AR25-1</f>
         <v>40</v>
       </c>
-      <c r="AW25" s="51">
+      <c r="AW25" s="36">
         <f>AS25+1</f>
         <v>41</v>
       </c>
-      <c r="AX25" s="52">
+      <c r="AX25" s="37">
         <v>5</v>
       </c>
-      <c r="AY25" s="30">
+      <c r="AY25" s="16">
         <f>AW25+AX25-1</f>
         <v>45</v>
       </c>
-      <c r="BC25" s="51">
+      <c r="BC25" s="36">
         <f>AY25+1</f>
         <v>46</v>
       </c>
-      <c r="BD25" s="52">
+      <c r="BD25" s="37">
         <v>20</v>
       </c>
-      <c r="BE25" s="30">
+      <c r="BE25" s="16">
         <f>BC25+BD25-1</f>
         <v>65</v>
       </c>
-      <c r="BU25" s="51">
+      <c r="BU25" s="36">
         <f>BQ32+1</f>
         <v>67</v>
       </c>
-      <c r="BV25" s="52">
+      <c r="BV25" s="37">
         <v>14</v>
       </c>
-      <c r="BW25" s="30">
+      <c r="BW25" s="16">
         <f>BU25+BV25-1</f>
         <v>80</v>
       </c>
-      <c r="CA25" s="51">
+      <c r="CA25" s="36">
         <f>BW25+1</f>
         <v>81</v>
       </c>
-      <c r="CB25" s="52">
+      <c r="CB25" s="37">
         <v>5</v>
       </c>
-      <c r="CC25" s="30">
+      <c r="CC25" s="16">
         <f>CA25+CB25-1</f>
         <v>85</v>
       </c>
-      <c r="CG25" s="51">
+      <c r="CG25" s="36">
         <f>CC25+1</f>
         <v>86</v>
       </c>
-      <c r="CH25" s="52">
+      <c r="CH25" s="37">
         <v>5</v>
       </c>
-      <c r="CI25" s="30">
+      <c r="CI25" s="16">
         <f>CG25+CH25-1</f>
         <v>90</v>
       </c>
-      <c r="CM25" s="42"/>
-      <c r="CN25" s="47"/>
-      <c r="CO25" s="42"/>
-      <c r="CR25" s="51">
+      <c r="CM25" s="27"/>
+      <c r="CN25" s="32"/>
+      <c r="CO25" s="27"/>
+      <c r="CR25" s="36">
         <f>CI25</f>
         <v>90</v>
       </c>
-      <c r="CS25" s="52" t="s">
+      <c r="CS25" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="CT25" s="30">
+      <c r="CT25" s="16">
         <f>CR25</f>
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:98" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="F26" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="L26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
+      <c r="B26" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="F26" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="L26" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="54"/>
+      <c r="N26" s="55"/>
       <c r="P26" s="6"/>
-      <c r="R26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" s="18"/>
-      <c r="T26" s="19"/>
-      <c r="V26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="15"/>
-      <c r="X26" s="16"/>
-      <c r="AQ26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="19"/>
-      <c r="AW26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="19"/>
-      <c r="BC26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="22"/>
-      <c r="BU26" s="20" t="s">
+      <c r="R26" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="54"/>
+      <c r="T26" s="55"/>
+      <c r="V26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="BV26" s="21"/>
-      <c r="BW26" s="22"/>
-      <c r="CA26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="CB26" s="21"/>
-      <c r="CC26" s="22"/>
-      <c r="CG26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="CH26" s="18"/>
-      <c r="CI26" s="19"/>
-      <c r="CM26" s="43"/>
-      <c r="CN26" s="49"/>
-      <c r="CO26" s="44"/>
-      <c r="CR26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="CS26" s="21"/>
-      <c r="CT26" s="22"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="61"/>
+      <c r="AJ26" s="47"/>
+      <c r="AQ26" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="55"/>
+      <c r="AW26" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="55"/>
+      <c r="BC26" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD26" s="57"/>
+      <c r="BE26" s="58"/>
+      <c r="BU26" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV26" s="57"/>
+      <c r="BW26" s="58"/>
+      <c r="CA26" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB26" s="57"/>
+      <c r="CC26" s="58"/>
+      <c r="CG26" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="CH26" s="54"/>
+      <c r="CI26" s="55"/>
+      <c r="CM26" s="28"/>
+      <c r="CN26" s="34"/>
+      <c r="CO26" s="29"/>
+      <c r="CR26" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="CS26" s="57"/>
+      <c r="CT26" s="58"/>
     </row>
     <row r="27" spans="1:98" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
@@ -4095,6 +4144,7 @@
         <f>AQ27-1</f>
         <v>36</v>
       </c>
+      <c r="AJ27" s="47"/>
       <c r="AQ27" s="4">
         <f>AS27-AR25+1</f>
         <v>37</v>
@@ -4159,9 +4209,9 @@
         <f>CR27</f>
         <v>90</v>
       </c>
-      <c r="CM27" s="42"/>
-      <c r="CN27" s="47"/>
-      <c r="CO27" s="42"/>
+      <c r="CM27" s="27"/>
+      <c r="CN27" s="32"/>
+      <c r="CO27" s="27"/>
       <c r="CR27" s="4">
         <f>CR25</f>
         <v>90</v>
@@ -4175,187 +4225,193 @@
       </c>
     </row>
     <row r="28" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD28" s="39"/>
-      <c r="CN28" s="40"/>
+      <c r="AJ28" s="47"/>
+      <c r="BD28" s="24"/>
+      <c r="CN28" s="25"/>
     </row>
     <row r="29" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD29" s="40"/>
-      <c r="CN29" s="40"/>
+      <c r="AJ29" s="47"/>
+      <c r="BD29" s="25"/>
+      <c r="CN29" s="25"/>
     </row>
     <row r="30" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="BD30" s="40"/>
-      <c r="CN30" s="40"/>
+      <c r="AJ30" s="47"/>
+      <c r="BD30" s="25"/>
+      <c r="CN30" s="25"/>
     </row>
     <row r="31" spans="1:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V31" s="58">
+      <c r="V31" s="43">
         <f>$T$24+1</f>
         <v>16</v>
       </c>
-      <c r="W31" s="59">
+      <c r="W31" s="44">
         <v>20</v>
       </c>
-      <c r="X31" s="54">
+      <c r="X31" s="39">
         <f>V31+W31-1</f>
         <v>35</v>
       </c>
-      <c r="AQ31" s="59">
+      <c r="AJ31" s="47"/>
+      <c r="AQ31" s="44">
         <f>X31+1</f>
         <v>36</v>
       </c>
-      <c r="AR31" s="59">
+      <c r="AR31" s="44">
         <v>5</v>
       </c>
-      <c r="AS31" s="59">
+      <c r="AS31" s="44">
         <f>AQ31+AR31-1</f>
         <v>40</v>
       </c>
-      <c r="AW31" s="54">
+      <c r="AW31" s="39">
         <f>AS31+1</f>
         <v>41</v>
       </c>
-      <c r="AX31" s="54">
+      <c r="AX31" s="39">
         <v>5</v>
       </c>
-      <c r="AY31" s="54">
+      <c r="AY31" s="39">
         <f>AW31+AX31-1</f>
         <v>45</v>
       </c>
-      <c r="BC31" s="59">
+      <c r="BC31" s="44">
         <f>AY31+1</f>
         <v>46</v>
       </c>
-      <c r="BD31" s="61">
+      <c r="BD31" s="46">
         <v>10</v>
       </c>
-      <c r="BE31" s="59">
+      <c r="BE31" s="44">
         <f>BC31+BD31-1</f>
         <v>55</v>
       </c>
-      <c r="BI31" s="54">
+      <c r="BI31" s="39">
         <f>BE31+1</f>
         <v>56</v>
       </c>
-      <c r="BJ31" s="54">
+      <c r="BJ31" s="39">
         <v>5</v>
       </c>
-      <c r="BK31" s="54">
+      <c r="BK31" s="39">
         <f>BI31+BJ31-1</f>
         <v>60</v>
       </c>
-      <c r="BO31" s="59">
+      <c r="BO31" s="44">
         <f>BK31+1</f>
         <v>61</v>
       </c>
-      <c r="BP31" s="59">
+      <c r="BP31" s="44">
         <v>50</v>
       </c>
-      <c r="BQ31" s="59">
+      <c r="BQ31" s="44">
         <f>BO31+BP31-1</f>
         <v>110</v>
       </c>
-      <c r="CN31" s="40"/>
+      <c r="CN31" s="25"/>
     </row>
     <row r="32" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="V32" s="51">
+      <c r="V32" s="36">
         <f>$T$25+1</f>
         <v>16</v>
       </c>
-      <c r="W32" s="52">
+      <c r="W32" s="37">
         <v>20</v>
       </c>
-      <c r="X32" s="30">
+      <c r="X32" s="16">
         <f>V32+W32-1</f>
         <v>35</v>
       </c>
-      <c r="AQ32" s="51">
+      <c r="AJ32" s="47"/>
+      <c r="AQ32" s="36">
         <f>X32+1</f>
         <v>36</v>
       </c>
-      <c r="AR32" s="52">
+      <c r="AR32" s="37">
         <v>5</v>
       </c>
-      <c r="AS32" s="30">
+      <c r="AS32" s="16">
         <f>AQ32+AR32-1</f>
         <v>40</v>
       </c>
-      <c r="AW32" s="51">
+      <c r="AW32" s="36">
         <f>AQ32+1</f>
         <v>37</v>
       </c>
-      <c r="AX32" s="52">
+      <c r="AX32" s="37">
         <v>5</v>
       </c>
-      <c r="AY32" s="30">
+      <c r="AY32" s="16">
         <f>AW32+AX32-1</f>
         <v>41</v>
       </c>
-      <c r="BC32" s="51">
+      <c r="BC32" s="36">
         <f>AY32+1</f>
         <v>42</v>
       </c>
-      <c r="BD32" s="52">
+      <c r="BD32" s="37">
         <v>10</v>
       </c>
-      <c r="BE32" s="30">
+      <c r="BE32" s="16">
         <f>BC32+BD32-1</f>
         <v>51</v>
       </c>
-      <c r="BI32" s="51">
+      <c r="BI32" s="36">
         <f>BE32+1</f>
         <v>52</v>
       </c>
-      <c r="BJ32" s="52">
+      <c r="BJ32" s="37">
         <v>5</v>
       </c>
-      <c r="BK32" s="30">
+      <c r="BK32" s="16">
         <f>BI32+BJ32-1</f>
         <v>56</v>
       </c>
-      <c r="BO32" s="51">
+      <c r="BO32" s="36">
         <f>BK32+1</f>
         <v>57</v>
       </c>
-      <c r="BP32" s="52">
+      <c r="BP32" s="37">
         <v>10</v>
       </c>
-      <c r="BQ32" s="30">
+      <c r="BQ32" s="16">
         <f>BO32+BP32-1</f>
         <v>66</v>
       </c>
-      <c r="CN32" s="40"/>
+      <c r="CN32" s="25"/>
     </row>
     <row r="33" spans="22:92" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V33" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="15"/>
-      <c r="X33" s="16"/>
-      <c r="AQ33" s="17" t="s">
+      <c r="V33" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="60"/>
+      <c r="X33" s="61"/>
+      <c r="AJ33" s="47"/>
+      <c r="AQ33" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="55"/>
+      <c r="AW33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="55"/>
+      <c r="BC33" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AR33" s="18"/>
-      <c r="AS33" s="19"/>
-      <c r="AW33" s="17" t="s">
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="55"/>
+      <c r="BI33" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="55"/>
+      <c r="BO33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="19"/>
-      <c r="BC33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD33" s="18"/>
-      <c r="BE33" s="19"/>
-      <c r="BI33" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ33" s="18"/>
-      <c r="BK33" s="19"/>
-      <c r="BO33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP33" s="18"/>
-      <c r="BQ33" s="19"/>
-      <c r="CN33" s="40"/>
+      <c r="BP33" s="54"/>
+      <c r="BQ33" s="55"/>
+      <c r="CN33" s="25"/>
     </row>
     <row r="34" spans="22:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V34" s="4">
@@ -4370,6 +4426,7 @@
         <f>AQ34-1</f>
         <v>35</v>
       </c>
+      <c r="AJ34" s="47"/>
       <c r="AQ34" s="4">
         <v>36</v>
       </c>
@@ -4415,50 +4472,54 @@
       <c r="BQ34" s="5">
         <v>66</v>
       </c>
-      <c r="CN34" s="40"/>
+      <c r="CN34" s="25"/>
     </row>
     <row r="35" spans="22:92" x14ac:dyDescent="0.25">
-      <c r="BD35" s="39"/>
-      <c r="CN35" s="40"/>
+      <c r="AJ35" s="47"/>
+      <c r="BD35" s="24"/>
+      <c r="CN35" s="25"/>
     </row>
     <row r="36" spans="22:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V36" s="58">
+      <c r="V36" s="43">
         <f>$T$24+1</f>
         <v>16</v>
       </c>
-      <c r="W36" s="59">
+      <c r="W36" s="44">
         <v>5</v>
       </c>
-      <c r="X36" s="54">
+      <c r="X36" s="39">
         <f>V36+W36-1</f>
         <v>20</v>
       </c>
-      <c r="BD36" s="40"/>
-      <c r="CN36" s="40"/>
+      <c r="AJ36" s="47"/>
+      <c r="BD36" s="25"/>
+      <c r="CN36" s="25"/>
     </row>
     <row r="37" spans="22:92" x14ac:dyDescent="0.25">
-      <c r="V37" s="51">
+      <c r="V37" s="36">
         <f>$T$25+1</f>
         <v>16</v>
       </c>
-      <c r="W37" s="52">
+      <c r="W37" s="37">
         <v>5</v>
       </c>
-      <c r="X37" s="30">
+      <c r="X37" s="16">
         <f>V37+W37-1</f>
         <v>20</v>
       </c>
-      <c r="BD37" s="40"/>
-      <c r="CN37" s="40"/>
+      <c r="AJ37" s="47"/>
+      <c r="BD37" s="25"/>
+      <c r="CN37" s="25"/>
     </row>
     <row r="38" spans="22:92" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="22"/>
-      <c r="BD38" s="40"/>
-      <c r="CN38" s="40"/>
+      <c r="V38" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="W38" s="57"/>
+      <c r="X38" s="58"/>
+      <c r="AJ38" s="47"/>
+      <c r="BD38" s="25"/>
+      <c r="CN38" s="25"/>
     </row>
     <row r="39" spans="22:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V39" s="4">
@@ -4473,36 +4534,43 @@
         <f>BO34-1</f>
         <v>56</v>
       </c>
-      <c r="BD39" s="40"/>
-      <c r="CN39" s="40"/>
+      <c r="AJ39" s="47"/>
+      <c r="BD39" s="25"/>
+      <c r="CN39" s="25"/>
     </row>
     <row r="40" spans="22:92" x14ac:dyDescent="0.25">
-      <c r="BD40" s="40"/>
-      <c r="CN40" s="40"/>
+      <c r="AJ40" s="47"/>
+      <c r="BD40" s="25"/>
+      <c r="CN40" s="25"/>
     </row>
     <row r="41" spans="22:92" x14ac:dyDescent="0.25">
-      <c r="BD41" s="40"/>
-      <c r="CN41" s="40"/>
+      <c r="AJ41" s="47"/>
+      <c r="BD41" s="25"/>
+      <c r="CN41" s="25"/>
     </row>
     <row r="42" spans="22:92" x14ac:dyDescent="0.25">
-      <c r="BD42" s="40"/>
-      <c r="CN42" s="40"/>
+      <c r="AJ42" s="47"/>
+      <c r="BD42" s="25"/>
+      <c r="CN42" s="25"/>
+    </row>
+    <row r="43" spans="22:92" x14ac:dyDescent="0.25">
+      <c r="AJ43" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="R26:T26"/>
+  <mergeCells count="38">
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="CA26:CC26"/>
     <mergeCell ref="BU26:BW26"/>
     <mergeCell ref="CG26:CI26"/>
     <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="AQ26:AS26"/>
+    <mergeCell ref="AW26:AY26"/>
+    <mergeCell ref="AJ11:AL11"/>
     <mergeCell ref="BC33:BE33"/>
     <mergeCell ref="BI33:BK33"/>
     <mergeCell ref="BO33:BQ33"/>
     <mergeCell ref="V33:X33"/>
     <mergeCell ref="V38:X38"/>
-    <mergeCell ref="AQ26:AS26"/>
-    <mergeCell ref="AW26:AY26"/>
     <mergeCell ref="AQ33:AS33"/>
     <mergeCell ref="AW33:AY33"/>
     <mergeCell ref="CR26:CT26"/>
@@ -4527,8 +4595,10 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="L26:N26"/>
+    <mergeCell ref="R26:T26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>